--- a/Arkansas_Data/Data/ch4_slopes_licor_2024-2025.xlsx
+++ b/Arkansas_Data/Data/ch4_slopes_licor_2024-2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/rranniku_uark_edu/Documents/07_Documents/GitHub/Methane_Insight/Arkansas_Data/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\Methane_Insight\Arkansas_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:9_{9AC49678-6FA6-4038-A029-3190CC9B3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F021176-F8D0-491D-899C-7333A0B01CD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503EBA0-942A-4B3C-864A-00E978E35D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15270" xr2:uid="{3C50F249-ADD9-4B49-B182-F7C19B0768F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C50F249-ADD9-4B49-B182-F7C19B0768F8}"/>
   </bookViews>
   <sheets>
     <sheet name="ch4_slopes_licor_2024-2025" sheetId="1" r:id="rId1"/>
@@ -5770,7 +5770,8 @@
   <dimension ref="A1:K1588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J160" sqref="J160:J164"/>
+      <pane ySplit="1" topLeftCell="A821" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K851" sqref="K851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
